--- a/src/main/resources/xlsx/analysis/stat_ow_jzg_info.xlsx
+++ b/src/main/resources/xlsx/analysis/stat_ow_jzg_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\owip\src\main\resources\xlsx\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50714161-0CBC-4891-AFB3-566A14127571}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78AD497-E50F-4B5D-B7F8-A43AF6E9B65D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2325" windowWidth="22335" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -213,12 +213,58 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（数据源自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月年统数据）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
         <sz val="20"/>
         <rFont val="华文中宋"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">教工队伍党员信息分析
+      <t xml:space="preserve">全校教工队伍党员信息分析
 </t>
     </r>
     <r>
@@ -228,52 +274,6 @@
         <charset val="134"/>
       </rPr>
       <t/>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（数据源自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>year</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>month</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月年统数据）</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -468,6 +468,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -494,15 +503,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,7 +845,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -858,58 +858,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -945,92 +945,92 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>

--- a/src/main/resources/xlsx/analysis/stat_ow_jzg_info.xlsx
+++ b/src/main/resources/xlsx/analysis/stat_ow_jzg_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip.dlut\src\main\resources\xlsx\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78AD497-E50F-4B5D-B7F8-A43AF6E9B65D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482E7324-14F2-464E-B57D-EA1760D50674}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2325" windowWidth="22335" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="4080" windowWidth="22335" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -474,9 +474,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -502,6 +499,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -845,7 +845,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -858,58 +858,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -972,20 +972,20 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
